--- a/Sprint Planing.xlsx
+++ b/Sprint Planing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\romeshortcut\sapienza\SE\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE7DE53-F418-4263-9BC1-5FF43978DA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CF2099-83A4-46D1-99FA-9AD72B9622AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="2" r:id="rId1"/>
@@ -693,9 +693,6 @@
     <t>User directed to normal</t>
   </si>
   <si>
-    <t>Role Association in DB</t>
-  </si>
-  <si>
     <t>User directed to business</t>
   </si>
   <si>
@@ -760,6 +757,9 @@
   </si>
   <si>
     <t>documentation/slides</t>
+  </si>
+  <si>
+    <t>Role Association in Auth0</t>
   </si>
 </sst>
 </file>
@@ -1116,18 +1116,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1144,6 +1132,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1172,18 +1184,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7253,8 +7253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8098,10 +8098,10 @@
         <v>17</v>
       </c>
       <c r="M31" s="47"/>
-      <c r="N31" s="18">
+      <c r="N31" s="18"/>
+      <c r="O31" s="18">
         <v>1</v>
       </c>
-      <c r="O31" s="18"/>
     </row>
     <row r="32" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B32" s="18">
@@ -8189,10 +8189,10 @@
         <v>19</v>
       </c>
       <c r="M34" s="47"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18">
+      <c r="N34" s="18">
         <v>1</v>
       </c>
+      <c r="O34" s="18"/>
     </row>
     <row r="35" spans="2:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B35" s="18">
@@ -8482,8 +8482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:W51"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36:N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8688,8 +8688,8 @@
       <c r="V10" s="2"/>
     </row>
     <row r="11" spans="2:23" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="25" t="s">
         <v>7</v>
       </c>
@@ -8717,8 +8717,8 @@
       <c r="V11" s="2"/>
     </row>
     <row r="12" spans="2:23" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="54"/>
-      <c r="C12" s="55"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
       <c r="D12" s="25" t="s">
         <v>8</v>
       </c>
@@ -9230,8 +9230,8 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="2:23" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B26" s="52"/>
-      <c r="C26" s="53"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="59"/>
       <c r="D26" s="25" t="s">
         <v>7</v>
       </c>
@@ -9248,8 +9248,8 @@
       </c>
     </row>
     <row r="27" spans="2:23" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="54"/>
-      <c r="C27" s="55"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
       <c r="D27" s="25" t="s">
         <v>8</v>
       </c>
@@ -9271,10 +9271,10 @@
       </c>
       <c r="M27" s="30"/>
       <c r="N27" s="30"/>
-      <c r="O27" s="58" t="s">
+      <c r="O27" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="P27" s="59"/>
+      <c r="P27" s="55"/>
     </row>
     <row r="28" spans="2:23" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B28" s="25">
@@ -9304,10 +9304,10 @@
         <f>G13</f>
         <v>120</v>
       </c>
-      <c r="M28" s="60" t="s">
+      <c r="M28" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="N28" s="61"/>
+      <c r="N28" s="57"/>
       <c r="O28" s="29" t="s">
         <v>21</v>
       </c>
@@ -9342,10 +9342,10 @@
       <c r="J29" s="29">
         <v>0</v>
       </c>
-      <c r="M29" s="56" t="s">
+      <c r="M29" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="N29" s="57"/>
+      <c r="N29" s="53"/>
       <c r="O29" s="31">
         <v>1</v>
       </c>
@@ -9373,10 +9373,10 @@
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="2"/>
-      <c r="M30" s="56" t="s">
+      <c r="M30" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="57"/>
+      <c r="N30" s="53"/>
       <c r="O30" s="29">
         <v>1</v>
       </c>
@@ -9404,8 +9404,8 @@
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="2"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="57"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="53"/>
       <c r="O31" s="29"/>
       <c r="P31" s="29"/>
     </row>
@@ -9431,10 +9431,10 @@
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="2"/>
-      <c r="M32" s="56" t="s">
+      <c r="M32" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="N32" s="57"/>
+      <c r="N32" s="53"/>
       <c r="O32" s="29"/>
       <c r="P32" s="29">
         <v>1</v>
@@ -9462,10 +9462,10 @@
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="2"/>
-      <c r="M33" s="56" t="s">
+      <c r="M33" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="N33" s="57"/>
+      <c r="N33" s="53"/>
       <c r="O33" s="29"/>
       <c r="P33" s="29">
         <v>1</v>
@@ -9493,10 +9493,10 @@
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="2"/>
-      <c r="M34" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="N34" s="57"/>
+      <c r="M34" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="N34" s="53"/>
       <c r="O34" s="29">
         <v>1</v>
       </c>
@@ -9524,10 +9524,10 @@
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="2"/>
-      <c r="M35" s="56" t="s">
+      <c r="M35" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="N35" s="57"/>
+      <c r="N35" s="53"/>
       <c r="O35" s="29">
         <v>1</v>
       </c>
@@ -9555,10 +9555,10 @@
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="2"/>
-      <c r="M36" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="N36" s="57"/>
+      <c r="M36" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="N36" s="53"/>
       <c r="O36" s="29">
         <v>1</v>
       </c>
@@ -9586,8 +9586,8 @@
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="2"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="57"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="53"/>
       <c r="O37" s="29"/>
       <c r="P37" s="29"/>
     </row>
@@ -9773,6 +9773,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
     <mergeCell ref="M36:N36"/>
     <mergeCell ref="M37:N37"/>
     <mergeCell ref="O27:P27"/>
@@ -9781,11 +9786,6 @@
     <mergeCell ref="M31:N31"/>
     <mergeCell ref="M32:N32"/>
     <mergeCell ref="M29:N29"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9802,8 +9802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B11:P49"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+    <sheetView topLeftCell="E21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -9827,8 +9827,8 @@
   </cols>
   <sheetData>
     <row r="11" spans="2:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="64"/>
-      <c r="C11" s="65"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="8" t="s">
         <v>7</v>
       </c>
@@ -9842,8 +9842,8 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="66"/>
-      <c r="C12" s="67"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="8" t="s">
         <v>8</v>
       </c>
@@ -10156,8 +10156,8 @@
       </c>
     </row>
     <row r="26" spans="2:16" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="69"/>
       <c r="D26" s="8" t="s">
         <v>7</v>
       </c>
@@ -10176,8 +10176,8 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="66"/>
-      <c r="C27" s="67"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="71"/>
       <c r="D27" s="8" t="s">
         <v>8</v>
       </c>
@@ -10199,10 +10199,10 @@
       <c r="K27" s="1"/>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
-      <c r="N27" s="71" t="s">
+      <c r="N27" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="O27" s="72"/>
+      <c r="O27" s="63"/>
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
@@ -10233,10 +10233,10 @@
         <v>115</v>
       </c>
       <c r="K28" s="1"/>
-      <c r="L28" s="73" t="s">
+      <c r="L28" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M28" s="74"/>
+      <c r="M28" s="65"/>
       <c r="N28" s="16" t="s">
         <v>21</v>
       </c>
@@ -10272,10 +10272,10 @@
         <v>0</v>
       </c>
       <c r="K29" s="1"/>
-      <c r="L29" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="M29" s="63"/>
+      <c r="L29" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="M29" s="67"/>
       <c r="N29" s="17">
         <v>1</v>
       </c>
@@ -10303,10 +10303,10 @@
         <v>8</v>
       </c>
       <c r="K30" s="1"/>
-      <c r="L30" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="M30" s="63"/>
+      <c r="L30" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="M30" s="67"/>
       <c r="N30" s="16">
         <v>1</v>
       </c>
@@ -10334,10 +10334,10 @@
         <v>2</v>
       </c>
       <c r="K31" s="1"/>
-      <c r="L31" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="63"/>
+      <c r="L31" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="M31" s="67"/>
       <c r="N31" s="16">
         <v>1</v>
       </c>
@@ -10365,10 +10365,10 @@
         <v>5</v>
       </c>
       <c r="K32" s="1"/>
-      <c r="L32" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="M32" s="63"/>
+      <c r="L32" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="M32" s="67"/>
       <c r="N32" s="16">
         <v>1</v>
       </c>
@@ -10396,10 +10396,10 @@
         <v>4</v>
       </c>
       <c r="K33" s="1"/>
-      <c r="L33" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="M33" s="63"/>
+      <c r="L33" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33" s="67"/>
       <c r="N33" s="16"/>
       <c r="O33" s="16">
         <v>1</v>
@@ -10427,10 +10427,10 @@
         <v>2</v>
       </c>
       <c r="K34" s="1"/>
-      <c r="L34" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="M34" s="63"/>
+      <c r="L34" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="M34" s="67"/>
       <c r="N34" s="16"/>
       <c r="O34" s="16">
         <v>1</v>
@@ -10458,10 +10458,10 @@
         <v>10</v>
       </c>
       <c r="K35" s="1"/>
-      <c r="L35" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="M35" s="63"/>
+      <c r="L35" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="M35" s="67"/>
       <c r="N35" s="16"/>
       <c r="O35" s="16">
         <v>1</v>
@@ -10489,10 +10489,10 @@
         <v>6</v>
       </c>
       <c r="K36" s="1"/>
-      <c r="L36" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="M36" s="63"/>
+      <c r="L36" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="M36" s="67"/>
       <c r="N36" s="16">
         <v>1</v>
       </c>
@@ -10520,10 +10520,10 @@
         <v>12</v>
       </c>
       <c r="K37" s="1"/>
-      <c r="L37" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="M37" s="63"/>
+      <c r="L37" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="M37" s="67"/>
       <c r="N37" s="16">
         <v>1</v>
       </c>
@@ -10538,10 +10538,10 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="M38" s="63"/>
+      <c r="L38" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="M38" s="67"/>
       <c r="N38" s="16">
         <v>1</v>
       </c>
@@ -10556,10 +10556,10 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="M39" s="63"/>
+      <c r="L39" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="M39" s="67"/>
       <c r="N39" s="16"/>
       <c r="O39" s="16">
         <v>1</v>
@@ -10574,10 +10574,10 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="M40" s="63"/>
+      <c r="L40" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="M40" s="67"/>
       <c r="N40" s="16"/>
       <c r="O40" s="16">
         <v>1</v>
@@ -10585,11 +10585,11 @@
       <c r="P40" s="1"/>
     </row>
     <row r="41" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B41" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="69"/>
-      <c r="D41" s="70"/>
+      <c r="B41" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="73"/>
+      <c r="D41" s="74"/>
       <c r="E41" s="8">
         <f>E23</f>
         <v>16</v>
@@ -10625,11 +10625,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="B11:C12"/>
@@ -10642,6 +10637,11 @@
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10655,8 +10655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B12:P43"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -11082,7 +11082,7 @@
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M28" s="85"/>
       <c r="N28" s="40">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="84" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M29" s="85"/>
       <c r="N29" s="39">
@@ -11144,7 +11144,7 @@
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="84" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M30" s="85"/>
       <c r="N30" s="39">
@@ -11177,7 +11177,7 @@
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M31" s="85"/>
       <c r="N31" s="39">
@@ -11208,7 +11208,7 @@
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M32" s="85"/>
       <c r="N32" s="39"/>
@@ -11239,7 +11239,7 @@
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="84" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M33" s="85"/>
       <c r="N33" s="39"/>
@@ -11270,7 +11270,7 @@
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="84" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M34" s="85"/>
       <c r="N34" s="39">
@@ -11288,7 +11288,7 @@
       <c r="G35" s="36"/>
       <c r="K35" s="1"/>
       <c r="L35" s="75" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M35" s="75"/>
       <c r="N35" s="41"/>
